--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_525.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_525.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32057-d258704-Reviews-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_525.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_525.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,197 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r234123769-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>32057</t>
+  </si>
+  <si>
+    <t>258704</t>
+  </si>
+  <si>
+    <t>234123769</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Typical refurbished Motel6</t>
+  </si>
+  <si>
+    <t>Stayed there this June. Rooms are noisy, but I guess you can't expect better for a Motel6 - they are always next to a large and busy road. Good restaurants and decent shopping nearby. We had no problems at all, so I have no idea what the service is like, minimal interaction with the staff.Recommended if for some obscure reason you want to stay in Bell Gardens.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r208209536-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>208209536</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Great new room</t>
+  </si>
+  <si>
+    <t>I can't believe this is a motel 6.  U have to see it to believe it.  The maid was really helpful and the maintenance man help with our bag up the stairs because the elevator broke down.  The rooms had a fresh paint job.  See you next week!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r175607658-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>175607658</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Didn't like the area hotel was in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cops were banging on the door of the room next to us a lot of ruckus going on. Could not sleep well at all :( it was the only hotel with a room t available that night :( if I would have known I would have looked somewhere else the rooms were ok but the handle to the bathroom door would fall when u would open it </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r123178364-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>123178364</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>We keep coming back! (:</t>
+  </si>
+  <si>
+    <t>My husband travels in the greater LA area for his job and we usually just stay at this hotel and then he commutes, for the price of the hotel and value, you can't beat it!!</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r32713826-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>32713826</t>
+  </si>
+  <si>
+    <t>06/19/2009</t>
+  </si>
+  <si>
+    <t>I'd rather stay at Motel 6 next time.</t>
+  </si>
+  <si>
+    <t>My daughter (age 5) and I had a mostly ok stay.  Very quiet at night.  An elderly woman was the only one available for service during the day and she was NOT pleasant at all.  Lobby of the hotel smelled like body odor every day.  If you're expecting a "regular" continental breakfast, I'd suggest you just go to the grocery store and stock your room's refrigerator.  They only offered sunny-d and small packages of sweet rolls.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r30315554-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>30315554</t>
+  </si>
+  <si>
+    <t>05/19/2009</t>
+  </si>
+  <si>
+    <t>Nice and Quiet!</t>
+  </si>
+  <si>
+    <t>I have stayed here in the past and have always enjoyed the peace and quiet  = a good night sleep.   My dog "Snippy" like the walk around the neighborhood.</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r11213755-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>11213755</t>
+  </si>
+  <si>
+    <t>12/02/2007</t>
+  </si>
+  <si>
+    <t>Good room, so-so neighborhood</t>
+  </si>
+  <si>
+    <t>The room was clean and bug-free. It contained a TV (with a free porn channel), a DVD player, an air conditioning unit that worked well, and a clock radio. There was a small refrigerator, a microwave oven, an iron with ironing board, and a hair dryer. A Kleenex dispenser was bolted to the kitchen area, and a useful rack of coat hangers was bolted to one wall. A table with a marble top served as a desk.
+	There was a coffee maker with complimentary packs of coffee. (The maid noticed that I had a can of decaffeinated coffee with me and thoughtfully left me an extra pack of decaf.) There were packets of complimentary shampoo and body lotion. 
+	The bathroom contained a toilet and a bathtub/shower, but had no sink or mirror--the kitchen sink and mirror would have to suffice. Vending machines downstairs dispensed soft drinks and headache medicine. In the morning, there were free breakfast rolls and coffee in the front office. 
+	The neighborhood was cold, impersonal, and a bit seedy--although probably not dangerous. Neighboring businesses included two gas stations, two fast food joints, two liquor stores and a small food store. Travelers who wanted to buy extra coffee, soup, soap, disposable razors, etc. could probably find what they needed in the surrounding food and liquor stores, but without a range of products to select from.
+	There were plenty of sirens on a Friday night, as well as many...The room was clean and bug-free. It contained a TV (with a free porn channel), a DVD player, an air conditioning unit that worked well, and a clock radio. There was a small refrigerator, a microwave oven, an iron with ironing board, and a hair dryer. A Kleenex dispenser was bolted to the kitchen area, and a useful rack of coat hangers was bolted to one wall. A table with a marble top served as a desk.	There was a coffee maker with complimentary packs of coffee. (The maid noticed that I had a can of decaffeinated coffee with me and thoughtfully left me an extra pack of decaf.) There were packets of complimentary shampoo and body lotion. 	The bathroom contained a toilet and a bathtub/shower, but had no sink or mirror--the kitchen sink and mirror would have to suffice. Vending machines downstairs dispensed soft drinks and headache medicine. In the morning, there were free breakfast rolls and coffee in the front office. 	The neighborhood was cold, impersonal, and a bit seedy--although probably not dangerous. Neighboring businesses included two gas stations, two fast food joints, two liquor stores and a small food store. Travelers who wanted to buy extra coffee, soup, soap, disposable razors, etc. could probably find what they needed in the surrounding food and liquor stores, but without a range of products to select from.	There were plenty of sirens on a Friday night, as well as many racing engines and screeching tires. I put The Club on my car each night and wondered whether I would find my car vandalized the next morning--although, in fact, no guests' cars were vandalized in any of the four nights that I stayed there.	I highly recommend this hotel for people on business who want a cheap, comfortable, convenient place to stay. I do not recommend it for people (especially those with children) hoping to enjoy the local neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>The room was clean and bug-free. It contained a TV (with a free porn channel), a DVD player, an air conditioning unit that worked well, and a clock radio. There was a small refrigerator, a microwave oven, an iron with ironing board, and a hair dryer. A Kleenex dispenser was bolted to the kitchen area, and a useful rack of coat hangers was bolted to one wall. A table with a marble top served as a desk.
+	There was a coffee maker with complimentary packs of coffee. (The maid noticed that I had a can of decaffeinated coffee with me and thoughtfully left me an extra pack of decaf.) There were packets of complimentary shampoo and body lotion. 
+	The bathroom contained a toilet and a bathtub/shower, but had no sink or mirror--the kitchen sink and mirror would have to suffice. Vending machines downstairs dispensed soft drinks and headache medicine. In the morning, there were free breakfast rolls and coffee in the front office. 
+	The neighborhood was cold, impersonal, and a bit seedy--although probably not dangerous. Neighboring businesses included two gas stations, two fast food joints, two liquor stores and a small food store. Travelers who wanted to buy extra coffee, soup, soap, disposable razors, etc. could probably find what they needed in the surrounding food and liquor stores, but without a range of products to select from.
+	There were plenty of sirens on a Friday night, as well as many...The room was clean and bug-free. It contained a TV (with a free porn channel), a DVD player, an air conditioning unit that worked well, and a clock radio. There was a small refrigerator, a microwave oven, an iron with ironing board, and a hair dryer. A Kleenex dispenser was bolted to the kitchen area, and a useful rack of coat hangers was bolted to one wall. A table with a marble top served as a desk.	There was a coffee maker with complimentary packs of coffee. (The maid noticed that I had a can of decaffeinated coffee with me and thoughtfully left me an extra pack of decaf.) There were packets of complimentary shampoo and body lotion. 	The bathroom contained a toilet and a bathtub/shower, but had no sink or mirror--the kitchen sink and mirror would have to suffice. Vending machines downstairs dispensed soft drinks and headache medicine. In the morning, there were free breakfast rolls and coffee in the front office. 	The neighborhood was cold, impersonal, and a bit seedy--although probably not dangerous. Neighboring businesses included two gas stations, two fast food joints, two liquor stores and a small food store. Travelers who wanted to buy extra coffee, soup, soap, disposable razors, etc. could probably find what they needed in the surrounding food and liquor stores, but without a range of products to select from.	There were plenty of sirens on a Friday night, as well as many racing engines and screeching tires. I put The Club on my car each night and wondered whether I would find my car vandalized the next morning--although, in fact, no guests' cars were vandalized in any of the four nights that I stayed there.	I highly recommend this hotel for people on business who want a cheap, comfortable, convenient place to stay. I do not recommend it for people (especially those with children) hoping to enjoy the local neighborhood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r8592470-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>8592470</t>
+  </si>
+  <si>
+    <t>08/30/2007</t>
+  </si>
+  <si>
+    <t>Don't do it. They'll try to rip you off. The most disgusting place.</t>
+  </si>
+  <si>
+    <t>We booked this hotel during the WPT events in LA and boy was that a mistake. I checked out in less than an hour of being there. It was gross, looked like a rundown sex motel. The bathrooms were dirty. Table, bed, coffee maker ewwwwwwww, disgusting. DON'T DO IT!!!  Read the other reviews. They've also had bad experiences. I initially booked four days of stay but as soon as we entered the room, we checked right back out. The management still charged us for one night of stay which we did not stay. They were money hungry rip off management trying to make a dollar anyway they could. Extremely rude, and would not give us a refund. I was not happy because their webpage said there was a shuttle but there was none. As I was discussing this with the management, they brought up an incident where a man and a hooker almost burned down their hotel with a cigarette in front of my family and younger siblings. I was furious. The management had an extremely bad attitude. How could they expect us to stay there after telling us that! The management had an extremely bad attitude. You will feel like you’re  gonna catch a disease. Rude! Nasty! Dirty! Rip Off!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We booked this hotel during the WPT events in LA and boy was that a mistake. I checked out in less than an hour of being there. It was gross, looked like a rundown sex motel. The bathrooms were dirty. Table, bed, coffee maker ewwwwwwww, disgusting. DON'T DO IT!!!  Read the other reviews. They've also had bad experiences. I initially booked four days of stay but as soon as we entered the room, we checked right back out. The management still charged us for one night of stay which we did not stay. They were money hungry rip off management trying to make a dollar anyway they could. Extremely rude, and would not give us a refund. I was not happy because their webpage said there was a shuttle but there was none. As I was discussing this with the management, they brought up an incident where a man and a hooker almost burned down their hotel with a cigarette in front of my family and younger siblings. I was furious. The management had an extremely bad attitude. How could they expect us to stay there after telling us that! The management had an extremely bad attitude. You will feel like you’re  gonna catch a disease. Rude! Nasty! Dirty! Rip Off!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r6131756-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
+  </si>
+  <si>
+    <t>6131756</t>
+  </si>
+  <si>
+    <t>11/13/2006</t>
+  </si>
+  <si>
+    <t>This Inn saved the day for me any my family!</t>
+  </si>
+  <si>
+    <t>I stayed here this past week, and actually, I didn't look at this site til after I checked out, I had my house exterminated and needed a place to stay. I really enjoyed my stay, the inn was clean and comfortable and easily acessable to the freeway.</t>
+  </si>
+  <si>
+    <t>November 2006</t>
   </si>
 </sst>
 </file>
@@ -648,6 +839,587 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>25589</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>25589</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25589</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>25589</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25589</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25589</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>25589</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>25589</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>25589</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_525.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_525.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>utas2010</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Jina J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r208209536-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Azucena R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r175607658-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve">Cops were banging on the door of the room next to us a lot of ruckus going on. Could not sleep well at all :( it was the only hotel with a room t available that night :( if I would have known I would have looked somewhere else the rooms were ok but the handle to the bathroom door would fall when u would open it </t>
   </si>
   <si>
+    <t>amber9251</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r123178364-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>catmbaby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r32713826-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>nsooner45</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r30315554-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -268,6 +286,9 @@
   </si>
   <si>
     <t>January 2009</t>
+  </si>
+  <si>
+    <t>ArthurWilton</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r11213755-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
@@ -299,6 +320,9 @@
 	There were plenty of sirens on a Friday night, as well as many...The room was clean and bug-free. It contained a TV (with a free porn channel), a DVD player, an air conditioning unit that worked well, and a clock radio. There was a small refrigerator, a microwave oven, an iron with ironing board, and a hair dryer. A Kleenex dispenser was bolted to the kitchen area, and a useful rack of coat hangers was bolted to one wall. A table with a marble top served as a desk.	There was a coffee maker with complimentary packs of coffee. (The maid noticed that I had a can of decaffeinated coffee with me and thoughtfully left me an extra pack of decaf.) There were packets of complimentary shampoo and body lotion. 	The bathroom contained a toilet and a bathtub/shower, but had no sink or mirror--the kitchen sink and mirror would have to suffice. Vending machines downstairs dispensed soft drinks and headache medicine. In the morning, there were free breakfast rolls and coffee in the front office. 	The neighborhood was cold, impersonal, and a bit seedy--although probably not dangerous. Neighboring businesses included two gas stations, two fast food joints, two liquor stores and a small food store. Travelers who wanted to buy extra coffee, soup, soap, disposable razors, etc. could probably find what they needed in the surrounding food and liquor stores, but without a range of products to select from.	There were plenty of sirens on a Friday night, as well as many racing engines and screeching tires. I put The Club on my car each night and wondered whether I would find my car vandalized the next morning--although, in fact, no guests' cars were vandalized in any of the four nights that I stayed there.	I highly recommend this hotel for people on business who want a cheap, comfortable, convenient place to stay. I do not recommend it for people (especially those with children) hoping to enjoy the local neighborhood.More</t>
   </si>
   <si>
+    <t>Advice4U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r8592470-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
   </si>
   <si>
     <t>We booked this hotel during the WPT events in LA and boy was that a mistake. I checked out in less than an hour of being there. It was gross, looked like a rundown sex motel. The bathrooms were dirty. Table, bed, coffee maker ewwwwwwww, disgusting. DON'T DO IT!!!  Read the other reviews. They've also had bad experiences. I initially booked four days of stay but as soon as we entered the room, we checked right back out. The management still charged us for one night of stay which we did not stay. They were money hungry rip off management trying to make a dollar anyway they could. Extremely rude, and would not give us a refund. I was not happy because their webpage said there was a shuttle but there was none. As I was discussing this with the management, they brought up an incident where a man and a hooker almost burned down their hotel with a cigarette in front of my family and younger siblings. I was furious. The management had an extremely bad attitude. How could they expect us to stay there after telling us that! The management had an extremely bad attitude. You will feel like you’re  gonna catch a disease. Rude! Nasty! Dirty! Rip Off!More</t>
+  </si>
+  <si>
+    <t>ICollectStamps</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32057-d258704-r6131756-Motel_6_Bell_Gardens-Bell_Gardens_California.html</t>
@@ -843,43 +870,47 @@
       <c r="A2" t="n">
         <v>25589</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -897,50 +928,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>25589</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -954,41 +989,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>25589</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
@@ -1017,50 +1056,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>25589</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1084,50 +1127,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>25589</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1151,50 +1198,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>25589</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1218,50 +1269,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>25589</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1283,50 +1338,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>25589</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1350,50 +1409,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>25589</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1417,7 +1480,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
